--- a/kradata/xlsx/dailyAllTrainDetail_20230607_서울.xlsx
+++ b/kradata/xlsx/dailyAllTrainDetail_20230607_서울.xlsx
@@ -125,6 +125,9 @@
     <t>라온더맨</t>
   </si>
   <si>
+    <t>국6</t>
+  </si>
+  <si>
     <t>이혁</t>
   </si>
   <si>
@@ -216,9 +219,6 @@
   </si>
   <si>
     <t>라온에어포스</t>
-  </si>
-  <si>
-    <t>국6</t>
   </si>
   <si>
     <t>07:11</t>
@@ -3213,22 +3213,22 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -3242,31 +3242,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -3277,10 +3277,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -3289,10 +3289,10 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
         <v>34</v>
@@ -3312,10 +3312,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3327,10 +3327,10 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -3347,10 +3347,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -3359,10 +3359,10 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -3382,10 +3382,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3394,13 +3394,13 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
@@ -3417,13 +3417,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3458,7 +3458,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -3476,7 +3476,7 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -3493,22 +3493,22 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
@@ -3534,13 +3534,13 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
@@ -3563,7 +3563,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3616,7 +3616,7 @@
         <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -3686,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -3703,7 +3703,7 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>103</v>
@@ -3715,7 +3715,7 @@
         <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
@@ -3738,7 +3738,7 @@
         <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>108</v>
@@ -3753,10 +3753,10 @@
         <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -3773,7 +3773,7 @@
         <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>112</v>
@@ -3808,7 +3808,7 @@
         <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>117</v>
@@ -3837,7 +3837,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>121</v>
@@ -3896,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -3913,7 +3913,7 @@
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -3931,7 +3931,7 @@
         <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -3998,7 +3998,7 @@
         <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
         <v>27</v>
@@ -4018,7 +4018,7 @@
         <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
         <v>141</v>
@@ -4036,7 +4036,7 @@
         <v>91</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4088,7 +4088,7 @@
         <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -4106,7 +4106,7 @@
         <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -4123,7 +4123,7 @@
         <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -4138,7 +4138,7 @@
         <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
         <v>19</v>
@@ -4193,7 +4193,7 @@
         <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -4228,7 +4228,7 @@
         <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -4257,7 +4257,7 @@
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>165</v>
@@ -4269,7 +4269,7 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
         <v>166</v>
@@ -4298,7 +4298,7 @@
         <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -4333,7 +4333,7 @@
         <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -4345,7 +4345,7 @@
         <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
         <v>26</v>
@@ -4386,7 +4386,7 @@
         <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -4403,7 +4403,7 @@
         <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4415,13 +4415,13 @@
         <v>177</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J39" t="s">
         <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
@@ -4438,7 +4438,7 @@
         <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -4473,7 +4473,7 @@
         <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4517,7 +4517,7 @@
         <v>187</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
         <v>151</v>
@@ -4526,7 +4526,7 @@
         <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -4543,7 +4543,7 @@
         <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4555,13 +4555,13 @@
         <v>190</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
@@ -4572,13 +4572,13 @@
         <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>186</v>
@@ -4596,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -4642,13 +4642,13 @@
         <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>197</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4657,7 +4657,7 @@
         <v>198</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I46" t="s">
         <v>114</v>
@@ -4683,7 +4683,7 @@
         <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -4718,13 +4718,13 @@
         <v>204</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
         <v>180</v>
@@ -4753,7 +4753,7 @@
         <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
         <v>208</v>
@@ -4765,13 +4765,13 @@
         <v>210</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
@@ -4788,13 +4788,13 @@
         <v>211</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
         <v>212</v>
@@ -4806,7 +4806,7 @@
         <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
@@ -4823,7 +4823,7 @@
         <v>213</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -4835,7 +4835,7 @@
         <v>172</v>
       </c>
       <c r="I51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J51" t="s">
         <v>26</v>
@@ -4893,7 +4893,7 @@
         <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         <v>198</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I53" t="s">
         <v>114</v>
@@ -4928,7 +4928,7 @@
         <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -4963,7 +4963,7 @@
         <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
         <v>223</v>
@@ -4981,7 +4981,7 @@
         <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -5016,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -5033,7 +5033,7 @@
         <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -5042,10 +5042,10 @@
         <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J57" t="s">
         <v>26</v>
@@ -5068,7 +5068,7 @@
         <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -5086,7 +5086,7 @@
         <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -5132,13 +5132,13 @@
         <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -5202,7 +5202,7 @@
         <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
         <v>240</v>
@@ -5237,7 +5237,7 @@
         <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>242</v>
@@ -5272,7 +5272,7 @@
         <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
         <v>243</v>
@@ -5287,7 +5287,7 @@
         <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
         <v>114</v>
@@ -5296,7 +5296,7 @@
         <v>244</v>
       </c>
       <c r="K64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -5331,7 +5331,7 @@
         <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -5357,7 +5357,7 @@
         <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s">
         <v>249</v>
@@ -5401,7 +5401,7 @@
         <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
@@ -5421,10 +5421,10 @@
         <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s">
         <v>83</v>
@@ -5436,7 +5436,7 @@
         <v>18</v>
       </c>
       <c r="K68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
@@ -5453,10 +5453,10 @@
         <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>83</v>
@@ -5471,7 +5471,7 @@
         <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70">
@@ -5488,7 +5488,7 @@
         <v>256</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
         <v>257</v>
@@ -5503,10 +5503,10 @@
         <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
@@ -5523,7 +5523,7 @@
         <v>259</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5535,7 +5535,7 @@
         <v>260</v>
       </c>
       <c r="I71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J71" t="s">
         <v>26</v>
@@ -5561,7 +5561,7 @@
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>143</v>
@@ -5593,7 +5593,7 @@
         <v>263</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
         <v>264</v>
@@ -5611,7 +5611,7 @@
         <v>26</v>
       </c>
       <c r="K73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
@@ -5622,13 +5622,13 @@
         <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
         <v>267</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
@@ -5692,7 +5692,7 @@
         <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
         <v>273</v>
@@ -5716,7 +5716,7 @@
         <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -5727,13 +5727,13 @@
         <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
         <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
         <v>117</v>
@@ -5797,13 +5797,13 @@
         <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D79" t="s">
         <v>282</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5821,7 +5821,7 @@
         <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80">
@@ -5867,13 +5867,13 @@
         <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
         <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5908,7 +5908,7 @@
         <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -5943,7 +5943,7 @@
         <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -6013,13 +6013,13 @@
         <v>297</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
         <v>221</v>
@@ -6048,7 +6048,7 @@
         <v>298</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -6083,7 +6083,7 @@
         <v>300</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -6092,7 +6092,7 @@
         <v>193</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -6118,7 +6118,7 @@
         <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
         <v>302</v>
@@ -6206,7 +6206,7 @@
         <v>26</v>
       </c>
       <c r="K90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
@@ -6223,13 +6223,13 @@
         <v>308</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s">
         <v>294</v>
@@ -6241,7 +6241,7 @@
         <v>18</v>
       </c>
       <c r="K91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
@@ -6258,13 +6258,13 @@
         <v>309</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
         <v>310</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H92" t="s">
         <v>311</v>
@@ -6276,7 +6276,7 @@
         <v>26</v>
       </c>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
@@ -6293,7 +6293,7 @@
         <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -6328,7 +6328,7 @@
         <v>314</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -6337,7 +6337,7 @@
         <v>315</v>
       </c>
       <c r="H94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -6357,19 +6357,19 @@
         <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
         <v>316</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H95" t="s">
         <v>24</v>
@@ -6433,7 +6433,7 @@
         <v>319</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
@@ -6462,7 +6462,7 @@
         <v>148</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D98" t="s">
         <v>321</v>
@@ -6512,10 +6512,10 @@
         <v>299</v>
       </c>
       <c r="H99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J99" t="s">
         <v>26</v>
@@ -6550,7 +6550,7 @@
         <v>225</v>
       </c>
       <c r="I100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J100" t="s">
         <v>26</v>
@@ -6643,7 +6643,7 @@
         <v>332</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6678,7 +6678,7 @@
         <v>333</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
         <v>208</v>
@@ -6696,7 +6696,7 @@
         <v>120</v>
       </c>
       <c r="K104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
@@ -6777,13 +6777,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D107" t="s">
         <v>341</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
         <v>342</v>
@@ -6801,7 +6801,7 @@
         <v>26</v>
       </c>
       <c r="K107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
@@ -6812,7 +6812,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s">
         <v>343</v>
@@ -6836,7 +6836,7 @@
         <v>26</v>
       </c>
       <c r="K108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109">
@@ -6853,7 +6853,7 @@
         <v>346</v>
       </c>
       <c r="E109" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6906,7 +6906,7 @@
         <v>26</v>
       </c>
       <c r="K110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
@@ -7098,7 +7098,7 @@
         <v>357</v>
       </c>
       <c r="E116" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -7133,7 +7133,7 @@
         <v>359</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
         <v>360</v>
@@ -7151,7 +7151,7 @@
         <v>18</v>
       </c>
       <c r="K117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118">
@@ -7203,7 +7203,7 @@
         <v>363</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -7256,7 +7256,7 @@
         <v>18</v>
       </c>
       <c r="K120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121">
@@ -7337,7 +7337,7 @@
         <v>152</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D123" t="s">
         <v>370</v>
@@ -7361,7 +7361,7 @@
         <v>18</v>
       </c>
       <c r="K123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124">
@@ -7390,7 +7390,7 @@
         <v>372</v>
       </c>
       <c r="I124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J124" t="s">
         <v>18</v>
@@ -7442,13 +7442,13 @@
         <v>152</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D126" t="s">
         <v>375</v>
       </c>
       <c r="E126" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -7477,13 +7477,13 @@
         <v>152</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D127" t="s">
         <v>377</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
         <v>378</v>
@@ -7495,7 +7495,7 @@
         <v>133</v>
       </c>
       <c r="I127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J127" t="s">
         <v>91</v>
@@ -7571,7 +7571,7 @@
         <v>18</v>
       </c>
       <c r="K129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
@@ -7632,7 +7632,7 @@
         <v>70</v>
       </c>
       <c r="H131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I131" t="s">
         <v>34</v>
@@ -7676,7 +7676,7 @@
         <v>26</v>
       </c>
       <c r="K132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
@@ -7746,7 +7746,7 @@
         <v>26</v>
       </c>
       <c r="K134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
@@ -7775,7 +7775,7 @@
         <v>283</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J135" t="s">
         <v>120</v>
@@ -7816,7 +7816,7 @@
         <v>26</v>
       </c>
       <c r="K136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137">
@@ -7833,7 +7833,7 @@
         <v>395</v>
       </c>
       <c r="E137" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
         <v>396</v>
@@ -7921,7 +7921,7 @@
         <v>26</v>
       </c>
       <c r="K139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140">
@@ -7932,7 +7932,7 @@
         <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D140" t="s">
         <v>401</v>
@@ -7956,7 +7956,7 @@
         <v>18</v>
       </c>
       <c r="K140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141">
@@ -7991,7 +7991,7 @@
         <v>26</v>
       </c>
       <c r="K141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142">
@@ -8008,7 +8008,7 @@
         <v>403</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
         <v>247</v>
@@ -8026,7 +8026,7 @@
         <v>18</v>
       </c>
       <c r="K142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143">
@@ -8061,7 +8061,7 @@
         <v>18</v>
       </c>
       <c r="K143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144">
@@ -8078,7 +8078,7 @@
         <v>406</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
@@ -8113,7 +8113,7 @@
         <v>407</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -8148,7 +8148,7 @@
         <v>408</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
         <v>396</v>
@@ -8183,7 +8183,7 @@
         <v>411</v>
       </c>
       <c r="E147" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -8195,13 +8195,13 @@
         <v>412</v>
       </c>
       <c r="I147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J147" t="s">
         <v>26</v>
       </c>
       <c r="K147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
@@ -8253,7 +8253,7 @@
         <v>415</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -8265,13 +8265,13 @@
         <v>416</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J149" t="s">
         <v>26</v>
       </c>
       <c r="K149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150">
@@ -8288,7 +8288,7 @@
         <v>417</v>
       </c>
       <c r="E150" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -8306,7 +8306,7 @@
         <v>26</v>
       </c>
       <c r="K150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151">
@@ -8341,7 +8341,7 @@
         <v>18</v>
       </c>
       <c r="K151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
@@ -8358,7 +8358,7 @@
         <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
         <v>396</v>
@@ -8393,7 +8393,7 @@
         <v>423</v>
       </c>
       <c r="E153" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
         <v>396</v>
@@ -8428,7 +8428,7 @@
         <v>425</v>
       </c>
       <c r="E154" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -8440,13 +8440,13 @@
         <v>426</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J154" t="s">
         <v>26</v>
       </c>
       <c r="K154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
@@ -8457,7 +8457,7 @@
         <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D155" t="s">
         <v>427</v>
@@ -8475,7 +8475,7 @@
         <v>266</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J155" t="s">
         <v>26</v>
@@ -8533,7 +8533,7 @@
         <v>431</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -8580,7 +8580,7 @@
         <v>182</v>
       </c>
       <c r="I158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J158" t="s">
         <v>26</v>
@@ -8621,7 +8621,7 @@
         <v>26</v>
       </c>
       <c r="K159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160">
@@ -8638,7 +8638,7 @@
         <v>436</v>
       </c>
       <c r="E160" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -8708,7 +8708,7 @@
         <v>440</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -8720,7 +8720,7 @@
         <v>160</v>
       </c>
       <c r="I162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J162" t="s">
         <v>26</v>
@@ -8755,7 +8755,7 @@
         <v>70</v>
       </c>
       <c r="I163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J163" t="s">
         <v>26</v>
@@ -8784,7 +8784,7 @@
         <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H164" t="s">
         <v>294</v>
@@ -8796,7 +8796,7 @@
         <v>91</v>
       </c>
       <c r="K164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
@@ -8813,7 +8813,7 @@
         <v>443</v>
       </c>
       <c r="E165" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -8831,7 +8831,7 @@
         <v>26</v>
       </c>
       <c r="K165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166">
@@ -8912,7 +8912,7 @@
         <v>331</v>
       </c>
       <c r="C168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D168" t="s">
         <v>446</v>
@@ -8971,7 +8971,7 @@
         <v>18</v>
       </c>
       <c r="K169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170">
@@ -9023,7 +9023,7 @@
         <v>453</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
         <v>449</v>
@@ -9058,7 +9058,7 @@
         <v>455</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
         <v>387</v>
@@ -9070,13 +9070,13 @@
         <v>381</v>
       </c>
       <c r="I172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173">
@@ -9093,7 +9093,7 @@
         <v>456</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
         <v>304</v>
@@ -9128,7 +9128,7 @@
         <v>457</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
         <v>304</v>
@@ -9137,7 +9137,7 @@
         <v>458</v>
       </c>
       <c r="H174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I174" t="s">
         <v>17</v>
@@ -9157,13 +9157,13 @@
         <v>35</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D175" t="s">
         <v>459</v>
       </c>
       <c r="E175" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
         <v>304</v>
@@ -9207,7 +9207,7 @@
         <v>132</v>
       </c>
       <c r="H176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I176" t="s">
         <v>157</v>
@@ -9262,7 +9262,7 @@
         <v>35</v>
       </c>
       <c r="C178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D178" t="s">
         <v>463</v>
@@ -9286,7 +9286,7 @@
         <v>120</v>
       </c>
       <c r="K178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179">
@@ -9321,7 +9321,7 @@
         <v>18</v>
       </c>
       <c r="K179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180">
@@ -9385,7 +9385,7 @@
         <v>274</v>
       </c>
       <c r="I181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J181" t="s">
         <v>26</v>
@@ -9420,7 +9420,7 @@
         <v>318</v>
       </c>
       <c r="I182" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J182" t="s">
         <v>120</v>
@@ -9455,7 +9455,7 @@
         <v>318</v>
       </c>
       <c r="I183" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J183" t="s">
         <v>120</v>
@@ -9583,7 +9583,7 @@
         <v>475</v>
       </c>
       <c r="E187" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -9592,7 +9592,7 @@
         <v>221</v>
       </c>
       <c r="H187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I187" t="s">
         <v>17</v>
@@ -9618,7 +9618,7 @@
         <v>476</v>
       </c>
       <c r="E188" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -9647,13 +9647,13 @@
         <v>110</v>
       </c>
       <c r="C189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D189" t="s">
         <v>477</v>
       </c>
       <c r="E189" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -9671,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="K189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190">
@@ -9682,13 +9682,13 @@
         <v>110</v>
       </c>
       <c r="C190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D190" t="s">
         <v>478</v>
       </c>
       <c r="E190" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -9706,7 +9706,7 @@
         <v>26</v>
       </c>
       <c r="K190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191">
@@ -9723,7 +9723,7 @@
         <v>480</v>
       </c>
       <c r="E191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -9735,7 +9735,7 @@
         <v>289</v>
       </c>
       <c r="I191" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J191" t="s">
         <v>26</v>
@@ -9758,7 +9758,7 @@
         <v>481</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
@@ -9793,7 +9793,7 @@
         <v>483</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F193" t="s">
         <v>117</v>
@@ -9811,7 +9811,7 @@
         <v>18</v>
       </c>
       <c r="K193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
@@ -9840,7 +9840,7 @@
         <v>318</v>
       </c>
       <c r="I194" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J194" t="s">
         <v>120</v>
@@ -9898,7 +9898,7 @@
         <v>486</v>
       </c>
       <c r="E196" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -9916,7 +9916,7 @@
         <v>18</v>
       </c>
       <c r="K196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197">
@@ -9951,7 +9951,7 @@
         <v>18</v>
       </c>
       <c r="K197" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198">
@@ -9968,7 +9968,7 @@
         <v>488</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F198" t="s">
         <v>117</v>
@@ -9986,7 +9986,7 @@
         <v>18</v>
       </c>
       <c r="K198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199">
@@ -10003,7 +10003,7 @@
         <v>489</v>
       </c>
       <c r="E199" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
         <v>302</v>
@@ -10021,7 +10021,7 @@
         <v>91</v>
       </c>
       <c r="K199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200">
@@ -10047,7 +10047,7 @@
         <v>410</v>
       </c>
       <c r="H200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I200" t="s">
         <v>84</v>
@@ -10108,7 +10108,7 @@
         <v>492</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -10117,7 +10117,7 @@
         <v>276</v>
       </c>
       <c r="H202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I202" t="s">
         <v>147</v>
@@ -10126,7 +10126,7 @@
         <v>120</v>
       </c>
       <c r="K202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203">
@@ -10231,7 +10231,7 @@
         <v>18</v>
       </c>
       <c r="K205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206">
@@ -10248,7 +10248,7 @@
         <v>496</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -10260,13 +10260,13 @@
         <v>159</v>
       </c>
       <c r="I206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J206" t="s">
         <v>26</v>
       </c>
       <c r="K206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207">
@@ -10283,7 +10283,7 @@
         <v>497</v>
       </c>
       <c r="E207" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
         <v>498</v>
@@ -10301,7 +10301,7 @@
         <v>26</v>
       </c>
       <c r="K207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208">
@@ -10388,7 +10388,7 @@
         <v>502</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -10417,7 +10417,7 @@
         <v>161</v>
       </c>
       <c r="C211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D211" t="s">
         <v>503</v>
@@ -10441,7 +10441,7 @@
         <v>26</v>
       </c>
       <c r="K211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212">
@@ -10470,7 +10470,7 @@
         <v>334</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J212" t="s">
         <v>26</v>
@@ -10546,7 +10546,7 @@
         <v>26</v>
       </c>
       <c r="K214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215">
@@ -10575,13 +10575,13 @@
         <v>175</v>
       </c>
       <c r="I215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J215" t="s">
         <v>26</v>
       </c>
       <c r="K215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216">
@@ -10598,7 +10598,7 @@
         <v>508</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
@@ -10633,7 +10633,7 @@
         <v>509</v>
       </c>
       <c r="E217" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -10808,7 +10808,7 @@
         <v>518</v>
       </c>
       <c r="E222" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -10837,7 +10837,7 @@
         <v>125</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D223" t="s">
         <v>520</v>
@@ -10872,7 +10872,7 @@
         <v>125</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
         <v>521</v>
@@ -10890,7 +10890,7 @@
         <v>82</v>
       </c>
       <c r="I224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J224" t="s">
         <v>18</v>
@@ -10907,7 +10907,7 @@
         <v>125</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D225" t="s">
         <v>522</v>
@@ -10925,7 +10925,7 @@
         <v>416</v>
       </c>
       <c r="I225" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J225" t="s">
         <v>26</v>
@@ -10942,7 +10942,7 @@
         <v>125</v>
       </c>
       <c r="C226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D226" t="s">
         <v>523</v>
@@ -10983,7 +10983,7 @@
         <v>524</v>
       </c>
       <c r="E227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
         <v>264</v>
@@ -11001,7 +11001,7 @@
         <v>18</v>
       </c>
       <c r="K227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="228">
@@ -11036,7 +11036,7 @@
         <v>26</v>
       </c>
       <c r="K228" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229">
@@ -11047,13 +11047,13 @@
         <v>125</v>
       </c>
       <c r="C229" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D229" t="s">
         <v>527</v>
       </c>
       <c r="E229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F229" t="s">
         <v>14</v>
@@ -11132,7 +11132,7 @@
         <v>418</v>
       </c>
       <c r="H231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I231" t="s">
         <v>157</v>
@@ -11158,13 +11158,13 @@
         <v>531</v>
       </c>
       <c r="E232" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F232" t="s">
         <v>532</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H232" t="s">
         <v>426</v>
@@ -11193,7 +11193,7 @@
         <v>533</v>
       </c>
       <c r="E233" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F233" t="s">
         <v>14</v>
@@ -11228,7 +11228,7 @@
         <v>534</v>
       </c>
       <c r="E234" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F234" t="s">
         <v>535</v>
@@ -11246,7 +11246,7 @@
         <v>18</v>
       </c>
       <c r="K234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235">
@@ -11292,13 +11292,13 @@
         <v>130</v>
       </c>
       <c r="C236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D236" t="s">
         <v>537</v>
       </c>
       <c r="E236" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F236" t="s">
         <v>73</v>
@@ -11316,7 +11316,7 @@
         <v>18</v>
       </c>
       <c r="K236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="237">
@@ -11327,13 +11327,13 @@
         <v>130</v>
       </c>
       <c r="C237" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D237" t="s">
         <v>538</v>
       </c>
       <c r="E237" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F237" t="s">
         <v>73</v>
@@ -11351,7 +11351,7 @@
         <v>26</v>
       </c>
       <c r="K237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238">
@@ -11362,13 +11362,13 @@
         <v>130</v>
       </c>
       <c r="C238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D238" t="s">
         <v>539</v>
       </c>
       <c r="E238" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F238" t="s">
         <v>535</v>
@@ -11386,7 +11386,7 @@
         <v>18</v>
       </c>
       <c r="K238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239">
@@ -11403,7 +11403,7 @@
         <v>540</v>
       </c>
       <c r="E239" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -11438,7 +11438,7 @@
         <v>541</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
         <v>535</v>
@@ -11450,7 +11450,7 @@
         <v>123</v>
       </c>
       <c r="I240" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J240" t="s">
         <v>26</v>
@@ -11464,7 +11464,7 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C241" t="s">
         <v>20</v>
@@ -11499,7 +11499,7 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C242" t="s">
         <v>101</v>
@@ -11534,7 +11534,7 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C243" t="s">
         <v>139</v>
@@ -11555,7 +11555,7 @@
         <v>337</v>
       </c>
       <c r="I243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J243" t="s">
         <v>26</v>
@@ -11569,7 +11569,7 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C244" t="s">
         <v>144</v>
@@ -11604,7 +11604,7 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C245" t="s">
         <v>148</v>
@@ -11628,10 +11628,10 @@
         <v>157</v>
       </c>
       <c r="J245" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K245" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246">
@@ -11639,7 +11639,7 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C246" t="s">
         <v>152</v>
@@ -11674,7 +11674,7 @@
         <v>246.0</v>
       </c>
       <c r="B247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -11683,7 +11683,7 @@
         <v>548</v>
       </c>
       <c r="E247" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -11709,7 +11709,7 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C248" t="s">
         <v>110</v>
@@ -11736,7 +11736,7 @@
         <v>18</v>
       </c>
       <c r="K248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="249">
@@ -11744,7 +11744,7 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C249" t="s">
         <v>161</v>
@@ -11779,16 +11779,16 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D250" t="s">
         <v>551</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
         <v>552</v>
@@ -11806,7 +11806,7 @@
         <v>26</v>
       </c>
       <c r="K250" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="251">
@@ -11814,7 +11814,7 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C251" t="s">
         <v>130</v>
@@ -11849,10 +11849,10 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D252" t="s">
         <v>554</v>
@@ -11867,7 +11867,7 @@
         <v>75</v>
       </c>
       <c r="H252" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I252" t="s">
         <v>358</v>
@@ -11884,7 +11884,7 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C253" t="s">
         <v>270</v>
@@ -11893,7 +11893,7 @@
         <v>555</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F253" t="s">
         <v>556</v>
@@ -11919,16 +11919,16 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D254" t="s">
         <v>557</v>
       </c>
       <c r="E254" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -11954,7 +11954,7 @@
         <v>254.0</v>
       </c>
       <c r="B255" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C255" t="s">
         <v>199</v>
@@ -11963,7 +11963,7 @@
         <v>558</v>
       </c>
       <c r="E255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F255" t="s">
         <v>396</v>
@@ -11981,7 +11981,7 @@
         <v>18</v>
       </c>
       <c r="K255" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="256">
@@ -11989,7 +11989,7 @@
         <v>255.0</v>
       </c>
       <c r="B256" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C256" t="s">
         <v>245</v>
@@ -12024,7 +12024,7 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C257" t="s">
         <v>203</v>
@@ -12051,7 +12051,7 @@
         <v>26</v>
       </c>
       <c r="K257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258">
@@ -12059,10 +12059,10 @@
         <v>257.0</v>
       </c>
       <c r="B258" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C258" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D258" t="s">
         <v>562</v>
@@ -12094,7 +12094,7 @@
         <v>258.0</v>
       </c>
       <c r="B259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C259" t="s">
         <v>76</v>
@@ -12129,7 +12129,7 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C260" t="s">
         <v>350</v>
@@ -12156,7 +12156,7 @@
         <v>26</v>
       </c>
       <c r="K260" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261">
@@ -12164,7 +12164,7 @@
         <v>260.0</v>
       </c>
       <c r="B261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C261" t="s">
         <v>80</v>
@@ -12173,7 +12173,7 @@
         <v>566</v>
       </c>
       <c r="E261" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -12199,7 +12199,7 @@
         <v>261.0</v>
       </c>
       <c r="B262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
         <v>85</v>
@@ -12252,7 +12252,7 @@
         <v>193</v>
       </c>
       <c r="H263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I263" t="s">
         <v>17</v>
@@ -12278,7 +12278,7 @@
         <v>570</v>
       </c>
       <c r="E264" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F264" t="s">
         <v>14</v>
@@ -12296,7 +12296,7 @@
         <v>26</v>
       </c>
       <c r="K264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265">
@@ -12313,7 +12313,7 @@
         <v>571</v>
       </c>
       <c r="E265" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F265" t="s">
         <v>14</v>
@@ -12366,7 +12366,7 @@
         <v>26</v>
       </c>
       <c r="K266" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267">
@@ -12395,7 +12395,7 @@
         <v>168</v>
       </c>
       <c r="I267" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J267" t="s">
         <v>26</v>
@@ -12418,7 +12418,7 @@
         <v>574</v>
       </c>
       <c r="E268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F268" t="s">
         <v>323</v>
@@ -12488,7 +12488,7 @@
         <v>576</v>
       </c>
       <c r="E270" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F270" t="s">
         <v>14</v>
@@ -12523,7 +12523,7 @@
         <v>577</v>
       </c>
       <c r="E271" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F271" t="s">
         <v>14</v>
@@ -12541,7 +12541,7 @@
         <v>18</v>
       </c>
       <c r="K271" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272">
@@ -12552,13 +12552,13 @@
         <v>134</v>
       </c>
       <c r="C272" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D272" t="s">
         <v>578</v>
       </c>
       <c r="E272" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F272" t="s">
         <v>14</v>
@@ -12593,7 +12593,7 @@
         <v>580</v>
       </c>
       <c r="E273" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F273" t="s">
         <v>14</v>
@@ -12611,7 +12611,7 @@
         <v>26</v>
       </c>
       <c r="K273" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="274">
@@ -12622,13 +12622,13 @@
         <v>134</v>
       </c>
       <c r="C274" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D274" t="s">
         <v>581</v>
       </c>
       <c r="E274" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F274" t="s">
         <v>14</v>
@@ -12646,7 +12646,7 @@
         <v>26</v>
       </c>
       <c r="K274" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="275">
@@ -12692,13 +12692,13 @@
         <v>134</v>
       </c>
       <c r="C276" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D276" t="s">
         <v>584</v>
       </c>
       <c r="E276" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F276" t="s">
         <v>112</v>
@@ -12710,13 +12710,13 @@
         <v>83</v>
       </c>
       <c r="I276" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J276" t="s">
         <v>26</v>
       </c>
       <c r="K276" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="277">
@@ -12739,7 +12739,7 @@
         <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H277" t="s">
         <v>95</v>
@@ -12803,7 +12803,7 @@
         <v>587</v>
       </c>
       <c r="E279" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F279" t="s">
         <v>14</v>
@@ -12821,7 +12821,7 @@
         <v>18</v>
       </c>
       <c r="K279" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280">
@@ -12850,7 +12850,7 @@
         <v>589</v>
       </c>
       <c r="I280" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J280" t="s">
         <v>26</v>
@@ -12873,7 +12873,7 @@
         <v>590</v>
       </c>
       <c r="E281" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
         <v>14</v>
@@ -12943,7 +12943,7 @@
         <v>594</v>
       </c>
       <c r="E283" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F283" t="s">
         <v>14</v>
@@ -12955,13 +12955,13 @@
         <v>230</v>
       </c>
       <c r="I283" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J283" t="s">
         <v>26</v>
       </c>
       <c r="K283" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284">
@@ -13066,7 +13066,7 @@
         <v>18</v>
       </c>
       <c r="K286" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="287">
@@ -13083,7 +13083,7 @@
         <v>598</v>
       </c>
       <c r="E287" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F287" t="s">
         <v>14</v>
@@ -13095,7 +13095,7 @@
         <v>266</v>
       </c>
       <c r="I287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J287" t="s">
         <v>26</v>
@@ -13118,7 +13118,7 @@
         <v>599</v>
       </c>
       <c r="E288" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -13147,7 +13147,7 @@
         <v>270</v>
       </c>
       <c r="C289" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D289" t="s">
         <v>601</v>
@@ -13200,7 +13200,7 @@
         <v>164</v>
       </c>
       <c r="I290" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J290" t="s">
         <v>26</v>
@@ -13217,13 +13217,13 @@
         <v>270</v>
       </c>
       <c r="C291" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D291" t="s">
         <v>603</v>
       </c>
       <c r="E291" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -13235,13 +13235,13 @@
         <v>289</v>
       </c>
       <c r="I291" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J291" t="s">
         <v>26</v>
       </c>
       <c r="K291" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292">
@@ -13252,7 +13252,7 @@
         <v>270</v>
       </c>
       <c r="C292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D292" t="s">
         <v>604</v>
@@ -13287,13 +13287,13 @@
         <v>270</v>
       </c>
       <c r="C293" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D293" t="s">
         <v>605</v>
       </c>
       <c r="E293" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F293" t="s">
         <v>141</v>
@@ -13311,7 +13311,7 @@
         <v>18</v>
       </c>
       <c r="K293" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="294">
@@ -13357,7 +13357,7 @@
         <v>270</v>
       </c>
       <c r="C295" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -13404,7 +13404,7 @@
         <v>14</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H296" t="s">
         <v>479</v>
@@ -13424,7 +13424,7 @@
         <v>296.0</v>
       </c>
       <c r="B297" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C297" t="s">
         <v>101</v>
@@ -13459,7 +13459,7 @@
         <v>297.0</v>
       </c>
       <c r="B298" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C298" t="s">
         <v>152</v>
@@ -13494,7 +13494,7 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C299" t="s">
         <v>328</v>
@@ -13503,7 +13503,7 @@
         <v>611</v>
       </c>
       <c r="E299" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F299" t="s">
         <v>14</v>
@@ -13518,10 +13518,10 @@
         <v>17</v>
       </c>
       <c r="J299" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K299" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300">
@@ -13529,7 +13529,7 @@
         <v>299.0</v>
       </c>
       <c r="B300" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C300" t="s">
         <v>331</v>
@@ -13564,7 +13564,7 @@
         <v>300.0</v>
       </c>
       <c r="B301" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C301" t="s">
         <v>110</v>
@@ -13591,7 +13591,7 @@
         <v>91</v>
       </c>
       <c r="K301" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302">
@@ -13599,7 +13599,7 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C302" t="s">
         <v>161</v>
@@ -13608,7 +13608,7 @@
         <v>614</v>
       </c>
       <c r="E302" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F302" t="s">
         <v>14</v>
@@ -13634,10 +13634,10 @@
         <v>302.0</v>
       </c>
       <c r="B303" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C303" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D303" t="s">
         <v>615</v>
@@ -13669,7 +13669,7 @@
         <v>303.0</v>
       </c>
       <c r="B304" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C304" t="s">
         <v>130</v>
@@ -13696,7 +13696,7 @@
         <v>26</v>
       </c>
       <c r="K304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305">
@@ -13704,10 +13704,10 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D305" t="s">
         <v>618</v>
@@ -13716,7 +13716,7 @@
         <v>195</v>
       </c>
       <c r="F305" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
         <v>465</v>
@@ -13731,7 +13731,7 @@
         <v>18</v>
       </c>
       <c r="K305" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306">
@@ -13739,10 +13739,10 @@
         <v>305.0</v>
       </c>
       <c r="B306" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C306" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D306" t="s">
         <v>619</v>
@@ -13754,7 +13754,7 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H306" t="s">
         <v>128</v>
@@ -13774,7 +13774,7 @@
         <v>306.0</v>
       </c>
       <c r="B307" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C307" t="s">
         <v>199</v>
@@ -13783,7 +13783,7 @@
         <v>620</v>
       </c>
       <c r="E307" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F307" t="s">
         <v>127</v>
@@ -13809,7 +13809,7 @@
         <v>307.0</v>
       </c>
       <c r="B308" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C308" t="s">
         <v>245</v>
@@ -13824,7 +13824,7 @@
         <v>14</v>
       </c>
       <c r="G308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H308" t="s">
         <v>294</v>
@@ -13844,7 +13844,7 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C309" t="s">
         <v>203</v>
@@ -13879,10 +13879,10 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C310" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D310" t="s">
         <v>623</v>
@@ -13914,7 +13914,7 @@
         <v>310.0</v>
       </c>
       <c r="B311" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C311" t="s">
         <v>76</v>
@@ -13935,7 +13935,7 @@
         <v>260</v>
       </c>
       <c r="I311" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J311" t="s">
         <v>26</v>
@@ -13949,7 +13949,7 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C312" t="s">
         <v>350</v>
@@ -13970,7 +13970,7 @@
         <v>233</v>
       </c>
       <c r="I312" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J312" t="s">
         <v>26</v>
@@ -13984,7 +13984,7 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C313" t="s">
         <v>85</v>
@@ -14019,7 +14019,7 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C314" t="s">
         <v>97</v>
@@ -14046,7 +14046,7 @@
         <v>91</v>
       </c>
       <c r="K314" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="315">
@@ -14054,7 +14054,7 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C315" t="s">
         <v>20</v>
@@ -14089,7 +14089,7 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C316" t="s">
         <v>144</v>
@@ -14124,7 +14124,7 @@
         <v>316.0</v>
       </c>
       <c r="B317" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C317" t="s">
         <v>152</v>
@@ -14159,7 +14159,7 @@
         <v>317.0</v>
       </c>
       <c r="B318" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C318" t="s">
         <v>331</v>
@@ -14194,7 +14194,7 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C319" t="s">
         <v>161</v>
@@ -14229,7 +14229,7 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C320" t="s">
         <v>115</v>
@@ -14264,7 +14264,7 @@
         <v>320.0</v>
       </c>
       <c r="B321" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C321" t="s">
         <v>125</v>
@@ -14299,16 +14299,16 @@
         <v>321.0</v>
       </c>
       <c r="B322" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C322" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D322" t="s">
         <v>637</v>
       </c>
       <c r="E322" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
@@ -14334,10 +14334,10 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C323" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D323" t="s">
         <v>638</v>
@@ -14369,7 +14369,7 @@
         <v>323.0</v>
       </c>
       <c r="B324" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C324" t="s">
         <v>199</v>
@@ -14396,7 +14396,7 @@
         <v>26</v>
       </c>
       <c r="K324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325">
@@ -14404,7 +14404,7 @@
         <v>324.0</v>
       </c>
       <c r="B325" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C325" t="s">
         <v>203</v>
@@ -14439,16 +14439,16 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C326" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D326" t="s">
         <v>641</v>
       </c>
       <c r="E326" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F326" t="s">
         <v>500</v>
@@ -14463,10 +14463,10 @@
         <v>84</v>
       </c>
       <c r="J326" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K326" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327">
@@ -14474,10 +14474,10 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C327" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D327" t="s">
         <v>642</v>
@@ -14509,7 +14509,7 @@
         <v>327.0</v>
       </c>
       <c r="B328" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C328" t="s">
         <v>76</v>
@@ -14518,7 +14518,7 @@
         <v>643</v>
       </c>
       <c r="E328" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F328" t="s">
         <v>500</v>
@@ -14544,7 +14544,7 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C329" t="s">
         <v>78</v>
@@ -14559,13 +14559,13 @@
         <v>14</v>
       </c>
       <c r="G329" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H329" t="s">
         <v>517</v>
       </c>
       <c r="I329" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J329" t="s">
         <v>26</v>
@@ -14579,7 +14579,7 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C330" t="s">
         <v>295</v>
@@ -14614,7 +14614,7 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C331" t="s">
         <v>85</v>
@@ -14649,7 +14649,7 @@
         <v>331.0</v>
       </c>
       <c r="B332" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C332" t="s">
         <v>92</v>
@@ -14676,7 +14676,7 @@
         <v>18</v>
       </c>
       <c r="K332" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333">
@@ -14705,7 +14705,7 @@
         <v>372</v>
       </c>
       <c r="I333" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J333" t="s">
         <v>26</v>
@@ -14778,10 +14778,10 @@
         <v>147</v>
       </c>
       <c r="J335" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K335" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336">
@@ -14798,7 +14798,7 @@
         <v>652</v>
       </c>
       <c r="E336" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F336" t="s">
         <v>14</v>
@@ -14886,7 +14886,7 @@
         <v>120</v>
       </c>
       <c r="K338" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="339">
@@ -14903,7 +14903,7 @@
         <v>655</v>
       </c>
       <c r="E339" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F339" t="s">
         <v>14</v>
@@ -14921,7 +14921,7 @@
         <v>18</v>
       </c>
       <c r="K339" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="340">
@@ -14973,7 +14973,7 @@
         <v>657</v>
       </c>
       <c r="E341" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F341" t="s">
         <v>323</v>
@@ -15002,13 +15002,13 @@
         <v>199</v>
       </c>
       <c r="C342" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D342" t="s">
         <v>658</v>
       </c>
       <c r="E342" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F342" t="s">
         <v>14</v>
@@ -15026,7 +15026,7 @@
         <v>18</v>
       </c>
       <c r="K342" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343">
@@ -15037,7 +15037,7 @@
         <v>199</v>
       </c>
       <c r="C343" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D343" t="s">
         <v>659</v>
@@ -15061,7 +15061,7 @@
         <v>18</v>
       </c>
       <c r="K343" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344">
@@ -15078,7 +15078,7 @@
         <v>660</v>
       </c>
       <c r="E344" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F344" t="s">
         <v>14</v>
@@ -15160,7 +15160,7 @@
         <v>372</v>
       </c>
       <c r="I346" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J346" t="s">
         <v>26</v>
@@ -15177,7 +15177,7 @@
         <v>199</v>
       </c>
       <c r="C347" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D347" t="s">
         <v>663</v>
@@ -15253,7 +15253,7 @@
         <v>665</v>
       </c>
       <c r="E349" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F349" t="s">
         <v>396</v>
@@ -15300,7 +15300,7 @@
         <v>198</v>
       </c>
       <c r="I350" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J350" t="s">
         <v>18</v>
@@ -15323,7 +15323,7 @@
         <v>667</v>
       </c>
       <c r="E351" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F351" t="s">
         <v>117</v>
@@ -15341,7 +15341,7 @@
         <v>18</v>
       </c>
       <c r="K351" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="352">
@@ -15405,7 +15405,7 @@
         <v>146</v>
       </c>
       <c r="I353" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J353" t="s">
         <v>26</v>
@@ -15568,7 +15568,7 @@
         <v>674</v>
       </c>
       <c r="E358" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F358" t="s">
         <v>14</v>
@@ -15621,7 +15621,7 @@
         <v>26</v>
       </c>
       <c r="K359" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360">
@@ -15667,7 +15667,7 @@
         <v>245</v>
       </c>
       <c r="C361" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D361" t="s">
         <v>677</v>
@@ -15702,13 +15702,13 @@
         <v>245</v>
       </c>
       <c r="C362" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D362" t="s">
         <v>678</v>
       </c>
       <c r="E362" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F362" t="s">
         <v>14</v>
@@ -15743,7 +15743,7 @@
         <v>679</v>
       </c>
       <c r="E363" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F363" t="s">
         <v>141</v>
@@ -15761,7 +15761,7 @@
         <v>26</v>
       </c>
       <c r="K363" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="364">
@@ -15848,7 +15848,7 @@
         <v>682</v>
       </c>
       <c r="E366" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F366" t="s">
         <v>14</v>
@@ -15860,7 +15860,7 @@
         <v>683</v>
       </c>
       <c r="I366" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J366" t="s">
         <v>26</v>
@@ -15936,7 +15936,7 @@
         <v>91</v>
       </c>
       <c r="K368" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369">
@@ -15959,19 +15959,19 @@
         <v>14</v>
       </c>
       <c r="G369" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H369" t="s">
         <v>419</v>
       </c>
       <c r="I369" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J369" t="s">
         <v>26</v>
       </c>
       <c r="K369" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="370">
@@ -15988,7 +15988,7 @@
         <v>687</v>
       </c>
       <c r="E370" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F370" t="s">
         <v>532</v>
@@ -16058,7 +16058,7 @@
         <v>689</v>
       </c>
       <c r="E372" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F372" t="s">
         <v>302</v>
@@ -16087,7 +16087,7 @@
         <v>203</v>
       </c>
       <c r="C373" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D373" t="s">
         <v>690</v>
@@ -16128,7 +16128,7 @@
         <v>691</v>
       </c>
       <c r="E374" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F374" t="s">
         <v>498</v>
@@ -16143,10 +16143,10 @@
         <v>90</v>
       </c>
       <c r="J374" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K374" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="375">
@@ -16157,13 +16157,13 @@
         <v>203</v>
       </c>
       <c r="C375" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D375" t="s">
         <v>692</v>
       </c>
       <c r="E375" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F375" t="s">
         <v>14</v>
@@ -16172,7 +16172,7 @@
         <v>221</v>
       </c>
       <c r="H375" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I375" t="s">
         <v>17</v>
@@ -16192,13 +16192,13 @@
         <v>203</v>
       </c>
       <c r="C376" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D376" t="s">
         <v>693</v>
       </c>
       <c r="E376" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F376" t="s">
         <v>532</v>
@@ -16213,10 +16213,10 @@
         <v>151</v>
       </c>
       <c r="J376" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K376" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="377">
@@ -16233,7 +16233,7 @@
         <v>694</v>
       </c>
       <c r="E377" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F377" t="s">
         <v>498</v>
@@ -16251,7 +16251,7 @@
         <v>26</v>
       </c>
       <c r="K377" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="378">
@@ -16262,13 +16262,13 @@
         <v>203</v>
       </c>
       <c r="C378" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D378" t="s">
         <v>695</v>
       </c>
       <c r="E378" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F378" t="s">
         <v>247</v>
@@ -16286,7 +16286,7 @@
         <v>18</v>
       </c>
       <c r="K378" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="379">
@@ -16294,7 +16294,7 @@
         <v>378.0</v>
       </c>
       <c r="B379" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C379" t="s">
         <v>101</v>
@@ -16303,7 +16303,7 @@
         <v>696</v>
       </c>
       <c r="E379" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F379" t="s">
         <v>14</v>
@@ -16321,7 +16321,7 @@
         <v>26</v>
       </c>
       <c r="K379" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="380">
@@ -16329,7 +16329,7 @@
         <v>379.0</v>
       </c>
       <c r="B380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C380" t="s">
         <v>139</v>
@@ -16338,7 +16338,7 @@
         <v>697</v>
       </c>
       <c r="E380" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F380" t="s">
         <v>14</v>
@@ -16364,7 +16364,7 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C381" t="s">
         <v>144</v>
@@ -16373,7 +16373,7 @@
         <v>698</v>
       </c>
       <c r="E381" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F381" t="s">
         <v>14</v>
@@ -16399,7 +16399,7 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C382" t="s">
         <v>106</v>
@@ -16408,7 +16408,7 @@
         <v>699</v>
       </c>
       <c r="E382" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F382" t="s">
         <v>552</v>
@@ -16434,7 +16434,7 @@
         <v>382.0</v>
       </c>
       <c r="B383" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C383" t="s">
         <v>331</v>
@@ -16443,7 +16443,7 @@
         <v>700</v>
       </c>
       <c r="E383" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F383" t="s">
         <v>701</v>
@@ -16461,7 +16461,7 @@
         <v>26</v>
       </c>
       <c r="K383" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384">
@@ -16469,7 +16469,7 @@
         <v>383.0</v>
       </c>
       <c r="B384" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C384" t="s">
         <v>110</v>
@@ -16478,7 +16478,7 @@
         <v>702</v>
       </c>
       <c r="E384" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F384" t="s">
         <v>272</v>
@@ -16487,7 +16487,7 @@
         <v>262</v>
       </c>
       <c r="H384" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I384" t="s">
         <v>157</v>
@@ -16496,7 +16496,7 @@
         <v>26</v>
       </c>
       <c r="K384" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="385">
@@ -16504,7 +16504,7 @@
         <v>384.0</v>
       </c>
       <c r="B385" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C385" t="s">
         <v>161</v>
@@ -16513,7 +16513,7 @@
         <v>703</v>
       </c>
       <c r="E385" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F385" t="s">
         <v>378</v>
@@ -16531,7 +16531,7 @@
         <v>26</v>
       </c>
       <c r="K385" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="386">
@@ -16539,7 +16539,7 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C386" t="s">
         <v>134</v>
@@ -16574,7 +16574,7 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C387" t="s">
         <v>199</v>
@@ -16583,7 +16583,7 @@
         <v>705</v>
       </c>
       <c r="E387" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F387" t="s">
         <v>14</v>
@@ -16601,7 +16601,7 @@
         <v>26</v>
       </c>
       <c r="K387" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="388">
@@ -16688,7 +16688,7 @@
         <v>708</v>
       </c>
       <c r="E390" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F390" t="s">
         <v>14</v>
@@ -16741,7 +16741,7 @@
         <v>26</v>
       </c>
       <c r="K391" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="392">
@@ -16758,7 +16758,7 @@
         <v>710</v>
       </c>
       <c r="E392" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F392" t="s">
         <v>14</v>
@@ -16793,7 +16793,7 @@
         <v>711</v>
       </c>
       <c r="E393" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F393" t="s">
         <v>310</v>
@@ -16811,7 +16811,7 @@
         <v>26</v>
       </c>
       <c r="K393" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="394">
@@ -16828,7 +16828,7 @@
         <v>712</v>
       </c>
       <c r="E394" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F394" t="s">
         <v>500</v>
@@ -16881,7 +16881,7 @@
         <v>26</v>
       </c>
       <c r="K395" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="396">
@@ -16910,7 +16910,7 @@
         <v>75</v>
       </c>
       <c r="I396" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J396" t="s">
         <v>26</v>
@@ -16997,13 +16997,13 @@
         <v>206</v>
       </c>
       <c r="C399" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D399" t="s">
         <v>717</v>
       </c>
       <c r="E399" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F399" t="s">
         <v>552</v>
@@ -17015,7 +17015,7 @@
         <v>75</v>
       </c>
       <c r="I399" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J399" t="s">
         <v>26</v>
@@ -17032,7 +17032,7 @@
         <v>206</v>
       </c>
       <c r="C400" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D400" t="s">
         <v>718</v>
@@ -17056,7 +17056,7 @@
         <v>26</v>
       </c>
       <c r="K400" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="401">
@@ -17067,7 +17067,7 @@
         <v>206</v>
       </c>
       <c r="C401" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D401" t="s">
         <v>719</v>
@@ -17091,7 +17091,7 @@
         <v>26</v>
       </c>
       <c r="K401" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="402">
@@ -17099,7 +17099,7 @@
         <v>401.0</v>
       </c>
       <c r="B402" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C402" t="s">
         <v>11</v>
@@ -17134,7 +17134,7 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C403" t="s">
         <v>139</v>
@@ -17169,7 +17169,7 @@
         <v>403.0</v>
       </c>
       <c r="B404" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C404" t="s">
         <v>219</v>
@@ -17178,7 +17178,7 @@
         <v>724</v>
       </c>
       <c r="E404" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F404" t="s">
         <v>14</v>
@@ -17196,7 +17196,7 @@
         <v>26</v>
       </c>
       <c r="K404" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="405">
@@ -17204,7 +17204,7 @@
         <v>404.0</v>
       </c>
       <c r="B405" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C405" t="s">
         <v>144</v>
@@ -17213,10 +17213,10 @@
         <v>725</v>
       </c>
       <c r="E405" t="s">
-        <v>616</v>
+        <v>195</v>
       </c>
       <c r="F405" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
         <v>232</v>
@@ -17239,7 +17239,7 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C406" t="s">
         <v>152</v>
@@ -17274,7 +17274,7 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C407" t="s">
         <v>184</v>
@@ -17283,7 +17283,7 @@
         <v>727</v>
       </c>
       <c r="E407" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F407" t="s">
         <v>14</v>
@@ -17309,7 +17309,7 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C408" t="s">
         <v>115</v>
@@ -17344,16 +17344,16 @@
         <v>408.0</v>
       </c>
       <c r="B409" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C409" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D409" t="s">
         <v>730</v>
       </c>
       <c r="E409" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F409" t="s">
         <v>556</v>
@@ -17365,7 +17365,7 @@
         <v>198</v>
       </c>
       <c r="I409" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J409" t="s">
         <v>26</v>
@@ -17379,7 +17379,7 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C410" t="s">
         <v>125</v>
@@ -17388,7 +17388,7 @@
         <v>731</v>
       </c>
       <c r="E410" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F410" t="s">
         <v>14</v>
@@ -17414,10 +17414,10 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C411" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D411" t="s">
         <v>732</v>
@@ -17449,10 +17449,10 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C412" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D412" t="s">
         <v>733</v>
@@ -17476,7 +17476,7 @@
         <v>120</v>
       </c>
       <c r="K412" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="413">
@@ -17484,7 +17484,7 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C413" t="s">
         <v>199</v>
@@ -17493,7 +17493,7 @@
         <v>734</v>
       </c>
       <c r="E413" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F413" t="s">
         <v>14</v>
@@ -17519,7 +17519,7 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C414" t="s">
         <v>203</v>
@@ -17546,7 +17546,7 @@
         <v>26</v>
       </c>
       <c r="K414" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="415">
@@ -17554,10 +17554,10 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C415" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D415" t="s">
         <v>736</v>
@@ -17575,7 +17575,7 @@
         <v>563</v>
       </c>
       <c r="I415" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J415" t="s">
         <v>120</v>
@@ -17589,16 +17589,16 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C416" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D416" t="s">
         <v>737</v>
       </c>
       <c r="E416" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F416" t="s">
         <v>14</v>
@@ -17624,7 +17624,7 @@
         <v>416.0</v>
       </c>
       <c r="B417" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C417" t="s">
         <v>71</v>
@@ -17659,7 +17659,7 @@
         <v>417.0</v>
       </c>
       <c r="B418" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C418" t="s">
         <v>78</v>
@@ -17668,7 +17668,7 @@
         <v>740</v>
       </c>
       <c r="E418" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F418" t="s">
         <v>310</v>
@@ -17680,13 +17680,13 @@
         <v>190</v>
       </c>
       <c r="I418" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J418" t="s">
         <v>26</v>
       </c>
       <c r="K418" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="419">
@@ -17694,7 +17694,7 @@
         <v>418.0</v>
       </c>
       <c r="B419" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C419" t="s">
         <v>350</v>
@@ -17703,7 +17703,7 @@
         <v>741</v>
       </c>
       <c r="E419" t="s">
-        <v>616</v>
+        <v>195</v>
       </c>
       <c r="F419" t="s">
         <v>112</v>
@@ -17729,7 +17729,7 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C420" t="s">
         <v>295</v>
@@ -17764,7 +17764,7 @@
         <v>420.0</v>
       </c>
       <c r="B421" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C421" t="s">
         <v>80</v>
@@ -17773,7 +17773,7 @@
         <v>743</v>
       </c>
       <c r="E421" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F421" t="s">
         <v>14</v>
@@ -17799,7 +17799,7 @@
         <v>421.0</v>
       </c>
       <c r="B422" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C422" t="s">
         <v>92</v>
@@ -17808,7 +17808,7 @@
         <v>745</v>
       </c>
       <c r="E422" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F422" t="s">
         <v>31</v>
@@ -17820,7 +17820,7 @@
         <v>190</v>
       </c>
       <c r="I422" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J422" t="s">
         <v>26</v>
@@ -17834,7 +17834,7 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C423" t="s">
         <v>97</v>
@@ -17843,7 +17843,7 @@
         <v>746</v>
       </c>
       <c r="E423" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F423" t="s">
         <v>14</v>
@@ -17913,7 +17913,7 @@
         <v>748</v>
       </c>
       <c r="E425" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F425" t="s">
         <v>14</v>
@@ -17960,7 +17960,7 @@
         <v>75</v>
       </c>
       <c r="I426" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J426" t="s">
         <v>26</v>
@@ -18088,7 +18088,7 @@
         <v>756</v>
       </c>
       <c r="E430" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F430" t="s">
         <v>14</v>
@@ -18106,7 +18106,7 @@
         <v>26</v>
       </c>
       <c r="K430" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431">
@@ -18152,7 +18152,7 @@
         <v>71</v>
       </c>
       <c r="C432" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D432" t="s">
         <v>758</v>
@@ -18176,7 +18176,7 @@
         <v>26</v>
       </c>
       <c r="K432" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="433">
@@ -18187,13 +18187,13 @@
         <v>71</v>
       </c>
       <c r="C433" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D433" t="s">
         <v>759</v>
       </c>
       <c r="E433" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F433" t="s">
         <v>14</v>
@@ -18304,7 +18304,7 @@
         <v>532</v>
       </c>
       <c r="G436" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H436" t="s">
         <v>409</v>
@@ -18351,7 +18351,7 @@
         <v>18</v>
       </c>
       <c r="K437" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="438">
@@ -18368,7 +18368,7 @@
         <v>765</v>
       </c>
       <c r="E438" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F438" t="s">
         <v>766</v>
@@ -18386,7 +18386,7 @@
         <v>18</v>
       </c>
       <c r="K438" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="439">
@@ -18473,7 +18473,7 @@
         <v>769</v>
       </c>
       <c r="E441" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F441" t="s">
         <v>344</v>
@@ -18491,7 +18491,7 @@
         <v>26</v>
       </c>
       <c r="K441" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="442">
@@ -18508,7 +18508,7 @@
         <v>770</v>
       </c>
       <c r="E442" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F442" t="s">
         <v>771</v>
@@ -18526,7 +18526,7 @@
         <v>26</v>
       </c>
       <c r="K442" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="443">
@@ -18543,7 +18543,7 @@
         <v>772</v>
       </c>
       <c r="E443" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F443" t="s">
         <v>771</v>
@@ -18561,7 +18561,7 @@
         <v>26</v>
       </c>
       <c r="K443" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="444">
@@ -18596,7 +18596,7 @@
         <v>18</v>
       </c>
       <c r="K444" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="445">
@@ -18607,13 +18607,13 @@
         <v>76</v>
       </c>
       <c r="C445" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D445" t="s">
         <v>774</v>
       </c>
       <c r="E445" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F445" t="s">
         <v>186</v>
@@ -18631,7 +18631,7 @@
         <v>91</v>
       </c>
       <c r="K445" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="446">
@@ -18648,7 +18648,7 @@
         <v>775</v>
       </c>
       <c r="E446" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F446" t="s">
         <v>512</v>
@@ -18677,7 +18677,7 @@
         <v>76</v>
       </c>
       <c r="C447" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D447" t="s">
         <v>776</v>
@@ -18718,7 +18718,7 @@
         <v>777</v>
       </c>
       <c r="E448" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F448" t="s">
         <v>778</v>
@@ -18736,7 +18736,7 @@
         <v>18</v>
       </c>
       <c r="K448" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="449">
@@ -18747,7 +18747,7 @@
         <v>76</v>
       </c>
       <c r="C449" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D449" t="s">
         <v>779</v>
@@ -18762,7 +18762,7 @@
         <v>426</v>
       </c>
       <c r="H449" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I449" t="s">
         <v>157</v>
@@ -18771,7 +18771,7 @@
         <v>26</v>
       </c>
       <c r="K449" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="450">
@@ -18858,7 +18858,7 @@
         <v>782</v>
       </c>
       <c r="E452" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F452" t="s">
         <v>783</v>
@@ -19016,7 +19016,7 @@
         <v>91</v>
       </c>
       <c r="K456" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="457">
@@ -19042,7 +19042,7 @@
         <v>168</v>
       </c>
       <c r="H457" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I457" t="s">
         <v>84</v>
@@ -19068,7 +19068,7 @@
         <v>789</v>
       </c>
       <c r="E458" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F458" t="s">
         <v>360</v>
@@ -19115,7 +19115,7 @@
         <v>721</v>
       </c>
       <c r="I459" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J459" t="s">
         <v>18</v>
@@ -19138,13 +19138,13 @@
         <v>791</v>
       </c>
       <c r="E460" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F460" t="s">
         <v>127</v>
       </c>
       <c r="G460" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H460" t="s">
         <v>294</v>
@@ -19226,7 +19226,7 @@
         <v>26</v>
       </c>
       <c r="K462" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="463">
@@ -19272,13 +19272,13 @@
         <v>78</v>
       </c>
       <c r="C464" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D464" t="s">
         <v>796</v>
       </c>
       <c r="E464" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F464" t="s">
         <v>14</v>
@@ -19348,7 +19348,7 @@
         <v>799</v>
       </c>
       <c r="E466" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F466" t="s">
         <v>14</v>
@@ -19401,7 +19401,7 @@
         <v>91</v>
       </c>
       <c r="K467" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="468">
@@ -19436,7 +19436,7 @@
         <v>91</v>
       </c>
       <c r="K468" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="469">
@@ -19447,7 +19447,7 @@
         <v>78</v>
       </c>
       <c r="C469" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D469" t="s">
         <v>802</v>
@@ -19552,7 +19552,7 @@
         <v>78</v>
       </c>
       <c r="C472" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D472" t="s">
         <v>806</v>
@@ -19576,7 +19576,7 @@
         <v>26</v>
       </c>
       <c r="K472" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="473">
@@ -19628,7 +19628,7 @@
         <v>808</v>
       </c>
       <c r="E474" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F474" t="s">
         <v>14</v>
@@ -19698,7 +19698,7 @@
         <v>810</v>
       </c>
       <c r="E476" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F476" t="s">
         <v>811</v>
@@ -19710,13 +19710,13 @@
         <v>269</v>
       </c>
       <c r="I476" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J476" t="s">
         <v>26</v>
       </c>
       <c r="K476" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="477">
@@ -19768,7 +19768,7 @@
         <v>813</v>
       </c>
       <c r="E478" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F478" t="s">
         <v>279</v>
@@ -19786,7 +19786,7 @@
         <v>26</v>
       </c>
       <c r="K478" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="479">
@@ -19803,7 +19803,7 @@
         <v>814</v>
       </c>
       <c r="E479" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F479" t="s">
         <v>14</v>
@@ -19873,7 +19873,7 @@
         <v>817</v>
       </c>
       <c r="E481" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F481" t="s">
         <v>387</v>
@@ -19891,7 +19891,7 @@
         <v>26</v>
       </c>
       <c r="K481" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="482">
@@ -19902,13 +19902,13 @@
         <v>350</v>
       </c>
       <c r="C482" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D482" t="s">
         <v>818</v>
       </c>
       <c r="E482" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F482" t="s">
         <v>14</v>
@@ -19920,7 +19920,7 @@
         <v>23</v>
       </c>
       <c r="I482" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J482" t="s">
         <v>26</v>
@@ -19943,7 +19943,7 @@
         <v>819</v>
       </c>
       <c r="E483" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F483" t="s">
         <v>14</v>
@@ -19972,13 +19972,13 @@
         <v>350</v>
       </c>
       <c r="C484" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D484" t="s">
         <v>820</v>
       </c>
       <c r="E484" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F484" t="s">
         <v>112</v>
@@ -19996,7 +19996,7 @@
         <v>26</v>
       </c>
       <c r="K484" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="485">
@@ -20007,13 +20007,13 @@
         <v>350</v>
       </c>
       <c r="C485" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D485" t="s">
         <v>821</v>
       </c>
       <c r="E485" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F485" t="s">
         <v>117</v>
@@ -20048,7 +20048,7 @@
         <v>822</v>
       </c>
       <c r="E486" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F486" t="s">
         <v>14</v>
@@ -20083,7 +20083,7 @@
         <v>824</v>
       </c>
       <c r="E487" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F487" t="s">
         <v>14</v>
@@ -20095,7 +20095,7 @@
         <v>143</v>
       </c>
       <c r="I487" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J487" t="s">
         <v>26</v>
@@ -20118,7 +20118,7 @@
         <v>825</v>
       </c>
       <c r="E488" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F488" t="s">
         <v>103</v>
@@ -20127,7 +20127,7 @@
         <v>193</v>
       </c>
       <c r="H488" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I488" t="s">
         <v>17</v>
@@ -20136,7 +20136,7 @@
         <v>26</v>
       </c>
       <c r="K488" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="489">
@@ -20153,7 +20153,7 @@
         <v>826</v>
       </c>
       <c r="E489" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F489" t="s">
         <v>14</v>
@@ -20188,7 +20188,7 @@
         <v>827</v>
       </c>
       <c r="E490" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F490" t="s">
         <v>449</v>
@@ -20258,7 +20258,7 @@
         <v>829</v>
       </c>
       <c r="E492" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F492" t="s">
         <v>323</v>
@@ -20305,13 +20305,13 @@
         <v>397</v>
       </c>
       <c r="I493" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J493" t="s">
         <v>26</v>
       </c>
       <c r="K493" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="494">
@@ -20328,7 +20328,7 @@
         <v>832</v>
       </c>
       <c r="E494" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F494" t="s">
         <v>14</v>
@@ -20363,7 +20363,7 @@
         <v>833</v>
       </c>
       <c r="E495" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F495" t="s">
         <v>14</v>
@@ -20375,7 +20375,7 @@
         <v>397</v>
       </c>
       <c r="I495" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J495" t="s">
         <v>26</v>
@@ -20416,7 +20416,7 @@
         <v>26</v>
       </c>
       <c r="K496" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="497">
@@ -20538,7 +20538,7 @@
         <v>838</v>
       </c>
       <c r="E500" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F500" t="s">
         <v>14</v>
@@ -20573,7 +20573,7 @@
         <v>839</v>
       </c>
       <c r="E501" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F501" t="s">
         <v>14</v>
@@ -20582,7 +20582,7 @@
         <v>190</v>
       </c>
       <c r="H501" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I501" t="s">
         <v>151</v>
@@ -20608,7 +20608,7 @@
         <v>840</v>
       </c>
       <c r="E502" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F502" t="s">
         <v>378</v>
@@ -20623,10 +20623,10 @@
         <v>17</v>
       </c>
       <c r="J502" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K502" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="503">
@@ -20637,7 +20637,7 @@
         <v>97</v>
       </c>
       <c r="C503" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D503" t="s">
         <v>841</v>
@@ -20661,7 +20661,7 @@
         <v>26</v>
       </c>
       <c r="K503" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="504">
@@ -20678,7 +20678,7 @@
         <v>842</v>
       </c>
       <c r="E504" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F504" t="s">
         <v>344</v>
@@ -20696,7 +20696,7 @@
         <v>18</v>
       </c>
       <c r="K504" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="505">
@@ -20748,7 +20748,7 @@
         <v>844</v>
       </c>
       <c r="E506" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F506" t="s">
         <v>783</v>
@@ -20801,7 +20801,7 @@
         <v>26</v>
       </c>
       <c r="K507" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="508">
@@ -20853,7 +20853,7 @@
         <v>848</v>
       </c>
       <c r="E509" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F509" t="s">
         <v>14</v>
@@ -20868,10 +20868,10 @@
         <v>84</v>
       </c>
       <c r="J509" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K509" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="510">
@@ -20894,13 +20894,13 @@
         <v>14</v>
       </c>
       <c r="G510" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H510" t="s">
         <v>419</v>
       </c>
       <c r="I510" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J510" t="s">
         <v>744</v>
@@ -20926,10 +20926,10 @@
         <v>227</v>
       </c>
       <c r="F511" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G511" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H511" t="s">
         <v>143</v>
@@ -20938,10 +20938,10 @@
         <v>147</v>
       </c>
       <c r="J511" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K511" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="512">
@@ -20958,7 +20958,7 @@
         <v>851</v>
       </c>
       <c r="E512" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F512" t="s">
         <v>247</v>
@@ -20976,7 +20976,7 @@
         <v>18</v>
       </c>
       <c r="K512" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="513">
@@ -20993,7 +20993,7 @@
         <v>852</v>
       </c>
       <c r="E513" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F513" t="s">
         <v>552</v>
@@ -21011,7 +21011,7 @@
         <v>18</v>
       </c>
       <c r="K513" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="514">
@@ -21098,7 +21098,7 @@
         <v>856</v>
       </c>
       <c r="E516" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F516" t="s">
         <v>14</v>
@@ -21107,7 +21107,7 @@
         <v>582</v>
       </c>
       <c r="H516" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I516" t="s">
         <v>90</v>
@@ -21116,7 +21116,7 @@
         <v>26</v>
       </c>
       <c r="K516" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="517">
@@ -21168,7 +21168,7 @@
         <v>858</v>
       </c>
       <c r="E518" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F518" t="s">
         <v>387</v>
@@ -21180,13 +21180,13 @@
         <v>479</v>
       </c>
       <c r="I518" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J518" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K518" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="519">
@@ -21221,7 +21221,7 @@
         <v>18</v>
       </c>
       <c r="K519" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="520">
@@ -21232,7 +21232,7 @@
         <v>846</v>
       </c>
       <c r="C520" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D520" t="s">
         <v>860</v>
@@ -21308,7 +21308,7 @@
         <v>863</v>
       </c>
       <c r="E522" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F522" t="s">
         <v>14</v>
@@ -21343,7 +21343,7 @@
         <v>864</v>
       </c>
       <c r="E523" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F523" t="s">
         <v>532</v>
@@ -21378,7 +21378,7 @@
         <v>865</v>
       </c>
       <c r="E524" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F524" t="s">
         <v>535</v>
@@ -21396,7 +21396,7 @@
         <v>91</v>
       </c>
       <c r="K524" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="525">
@@ -21413,7 +21413,7 @@
         <v>866</v>
       </c>
       <c r="E525" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F525" t="s">
         <v>535</v>
@@ -21483,7 +21483,7 @@
         <v>868</v>
       </c>
       <c r="E527" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F527" t="s">
         <v>272</v>
@@ -21536,7 +21536,7 @@
         <v>18</v>
       </c>
       <c r="K528" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="529">
@@ -21588,7 +21588,7 @@
         <v>871</v>
       </c>
       <c r="E530" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F530" t="s">
         <v>556</v>
@@ -21623,13 +21623,13 @@
         <v>872</v>
       </c>
       <c r="E531" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F531" t="s">
         <v>535</v>
       </c>
       <c r="G531" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H531" t="s">
         <v>479</v>
@@ -21658,7 +21658,7 @@
         <v>873</v>
       </c>
       <c r="E532" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F532" t="s">
         <v>754</v>
@@ -21728,7 +21728,7 @@
         <v>875</v>
       </c>
       <c r="E534" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F534" t="s">
         <v>112</v>
@@ -21757,7 +21757,7 @@
         <v>861</v>
       </c>
       <c r="C535" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D535" t="s">
         <v>876</v>
@@ -21781,7 +21781,7 @@
         <v>18</v>
       </c>
       <c r="K535" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="536">
@@ -21798,7 +21798,7 @@
         <v>877</v>
       </c>
       <c r="E536" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F536" t="s">
         <v>272</v>
@@ -21833,7 +21833,7 @@
         <v>878</v>
       </c>
       <c r="E537" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F537" t="s">
         <v>14</v>
@@ -21862,13 +21862,13 @@
         <v>861</v>
       </c>
       <c r="C538" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D538" t="s">
         <v>879</v>
       </c>
       <c r="E538" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F538" t="s">
         <v>754</v>
@@ -21921,7 +21921,7 @@
         <v>91</v>
       </c>
       <c r="K539" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="540">
@@ -21956,7 +21956,7 @@
         <v>26</v>
       </c>
       <c r="K540" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="541">
@@ -21967,7 +21967,7 @@
         <v>861</v>
       </c>
       <c r="C541" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D541" t="s">
         <v>882</v>
@@ -22002,7 +22002,7 @@
         <v>861</v>
       </c>
       <c r="C542" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D542" t="s">
         <v>883</v>
@@ -22043,7 +22043,7 @@
         <v>884</v>
       </c>
       <c r="E543" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F543" t="s">
         <v>885</v>
@@ -22055,7 +22055,7 @@
         <v>105</v>
       </c>
       <c r="I543" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J543" t="s">
         <v>18</v>
@@ -22093,10 +22093,10 @@
         <v>114</v>
       </c>
       <c r="J544" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K544" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="545">
@@ -22113,7 +22113,7 @@
         <v>887</v>
       </c>
       <c r="E545" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F545" t="s">
         <v>223</v>
@@ -22148,7 +22148,7 @@
         <v>888</v>
       </c>
       <c r="E546" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F546" t="s">
         <v>701</v>
@@ -22157,7 +22157,7 @@
         <v>74</v>
       </c>
       <c r="H546" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I546" t="s">
         <v>124</v>
@@ -22166,7 +22166,7 @@
         <v>18</v>
       </c>
       <c r="K546" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="547">
@@ -22183,7 +22183,7 @@
         <v>889</v>
       </c>
       <c r="E547" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F547" t="s">
         <v>556</v>
@@ -22253,7 +22253,7 @@
         <v>892</v>
       </c>
       <c r="E549" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F549" t="s">
         <v>14</v>
@@ -22265,7 +22265,7 @@
         <v>175</v>
       </c>
       <c r="I549" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J549" t="s">
         <v>18</v>
@@ -22288,7 +22288,7 @@
         <v>893</v>
       </c>
       <c r="E550" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F550" t="s">
         <v>14</v>
@@ -22422,13 +22422,13 @@
         <v>891</v>
       </c>
       <c r="C554" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D554" t="s">
         <v>897</v>
       </c>
       <c r="E554" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F554" t="s">
         <v>14</v>
@@ -22463,7 +22463,7 @@
         <v>898</v>
       </c>
       <c r="E555" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F555" t="s">
         <v>264</v>
@@ -22481,7 +22481,7 @@
         <v>18</v>
       </c>
       <c r="K555" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="556">
@@ -22533,7 +22533,7 @@
         <v>900</v>
       </c>
       <c r="E557" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F557" t="s">
         <v>14</v>
@@ -22551,7 +22551,7 @@
         <v>18</v>
       </c>
       <c r="K557" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="558">
@@ -22603,7 +22603,7 @@
         <v>902</v>
       </c>
       <c r="E559" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F559" t="s">
         <v>14</v>
@@ -22673,7 +22673,7 @@
         <v>904</v>
       </c>
       <c r="E561" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F561" t="s">
         <v>14</v>
@@ -22778,7 +22778,7 @@
         <v>908</v>
       </c>
       <c r="E564" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F564" t="s">
         <v>14</v>
@@ -22793,10 +22793,10 @@
         <v>90</v>
       </c>
       <c r="J564" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K564" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="565">
@@ -22813,7 +22813,7 @@
         <v>909</v>
       </c>
       <c r="E565" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F565" t="s">
         <v>14</v>
@@ -22831,7 +22831,7 @@
         <v>18</v>
       </c>
       <c r="K565" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="566">
@@ -22848,7 +22848,7 @@
         <v>910</v>
       </c>
       <c r="E566" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F566" t="s">
         <v>14</v>
@@ -22918,7 +22918,7 @@
         <v>912</v>
       </c>
       <c r="E568" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F568" t="s">
         <v>103</v>
@@ -22997,7 +22997,7 @@
         <v>426</v>
       </c>
       <c r="H570" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I570" t="s">
         <v>157</v>
@@ -23023,7 +23023,7 @@
         <v>915</v>
       </c>
       <c r="E571" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F571" t="s">
         <v>916</v>
@@ -23032,7 +23032,7 @@
         <v>376</v>
       </c>
       <c r="H571" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I571" t="s">
         <v>151</v>
@@ -23041,7 +23041,7 @@
         <v>26</v>
       </c>
       <c r="K571" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="572">
@@ -23058,7 +23058,7 @@
         <v>917</v>
       </c>
       <c r="E572" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F572" t="s">
         <v>103</v>
@@ -23070,13 +23070,13 @@
         <v>155</v>
       </c>
       <c r="I572" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J572" t="s">
         <v>18</v>
       </c>
       <c r="K572" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="573">
@@ -23087,13 +23087,13 @@
         <v>905</v>
       </c>
       <c r="C573" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D573" t="s">
         <v>918</v>
       </c>
       <c r="E573" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F573" t="s">
         <v>14</v>
@@ -23122,7 +23122,7 @@
         <v>905</v>
       </c>
       <c r="C574" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D574" t="s">
         <v>919</v>
@@ -23181,7 +23181,7 @@
         <v>26</v>
       </c>
       <c r="K575" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="576">
@@ -23216,7 +23216,7 @@
         <v>26</v>
       </c>
       <c r="K576" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="577">
@@ -23227,7 +23227,7 @@
         <v>905</v>
       </c>
       <c r="C577" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D577" t="s">
         <v>924</v>
@@ -23297,7 +23297,7 @@
         <v>905</v>
       </c>
       <c r="C579" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D579" t="s">
         <v>926</v>
@@ -23315,7 +23315,7 @@
         <v>318</v>
       </c>
       <c r="I579" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J579" t="s">
         <v>26</v>
@@ -23353,10 +23353,10 @@
         <v>147</v>
       </c>
       <c r="J580" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K580" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="581">
@@ -23391,7 +23391,7 @@
         <v>26</v>
       </c>
       <c r="K581" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="582">
@@ -23408,13 +23408,13 @@
         <v>929</v>
       </c>
       <c r="E582" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F582" t="s">
         <v>14</v>
       </c>
       <c r="G582" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H582" t="s">
         <v>182</v>
@@ -23443,7 +23443,7 @@
         <v>930</v>
       </c>
       <c r="E583" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F583" t="s">
         <v>14</v>
@@ -23461,7 +23461,7 @@
         <v>26</v>
       </c>
       <c r="K583" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="584">
@@ -23493,7 +23493,7 @@
         <v>452</v>
       </c>
       <c r="J584" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K584" t="s">
         <v>19</v>
@@ -23583,7 +23583,7 @@
         <v>935</v>
       </c>
       <c r="E587" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F587" t="s">
         <v>14</v>
@@ -23653,7 +23653,7 @@
         <v>937</v>
       </c>
       <c r="E589" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F589" t="s">
         <v>108</v>
@@ -23671,7 +23671,7 @@
         <v>26</v>
       </c>
       <c r="K589" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="590">
@@ -23688,7 +23688,7 @@
         <v>938</v>
       </c>
       <c r="E590" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F590" t="s">
         <v>108</v>
@@ -23741,7 +23741,7 @@
         <v>18</v>
       </c>
       <c r="K591" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="592">
@@ -23758,7 +23758,7 @@
         <v>940</v>
       </c>
       <c r="E592" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F592" t="s">
         <v>108</v>
@@ -23773,10 +23773,10 @@
         <v>157</v>
       </c>
       <c r="J592" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K592" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="593">
@@ -23857,7 +23857,7 @@
         <v>933</v>
       </c>
       <c r="C595" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D595" t="s">
         <v>943</v>
@@ -23892,7 +23892,7 @@
         <v>933</v>
       </c>
       <c r="C596" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D596" t="s">
         <v>944</v>
@@ -23913,10 +23913,10 @@
         <v>157</v>
       </c>
       <c r="J596" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K596" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="597">
@@ -23933,13 +23933,13 @@
         <v>945</v>
       </c>
       <c r="E597" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F597" t="s">
         <v>14</v>
       </c>
       <c r="G597" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H597" t="s">
         <v>414</v>
@@ -24003,7 +24003,7 @@
         <v>947</v>
       </c>
       <c r="E599" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F599" t="s">
         <v>14</v>
@@ -24032,7 +24032,7 @@
         <v>933</v>
       </c>
       <c r="C600" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D600" t="s">
         <v>948</v>
@@ -24073,7 +24073,7 @@
         <v>949</v>
       </c>
       <c r="E601" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F601" t="s">
         <v>14</v>
@@ -24091,7 +24091,7 @@
         <v>26</v>
       </c>
       <c r="K601" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="602">
@@ -24161,7 +24161,7 @@
         <v>18</v>
       </c>
       <c r="K603" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="604">
@@ -24196,7 +24196,7 @@
         <v>120</v>
       </c>
       <c r="K604" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="605">
@@ -24213,13 +24213,13 @@
         <v>954</v>
       </c>
       <c r="E605" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F605" t="s">
         <v>14</v>
       </c>
       <c r="G605" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H605" t="s">
         <v>187</v>
@@ -24228,10 +24228,10 @@
         <v>90</v>
       </c>
       <c r="J605" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K605" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="606">
@@ -24248,7 +24248,7 @@
         <v>955</v>
       </c>
       <c r="E606" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F606" t="s">
         <v>14</v>
@@ -24266,7 +24266,7 @@
         <v>18</v>
       </c>
       <c r="K606" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="607">
@@ -24283,7 +24283,7 @@
         <v>956</v>
       </c>
       <c r="E607" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F607" t="s">
         <v>14</v>
@@ -24301,7 +24301,7 @@
         <v>18</v>
       </c>
       <c r="K607" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="608">
@@ -24318,7 +24318,7 @@
         <v>957</v>
       </c>
       <c r="E608" t="s">
-        <v>616</v>
+        <v>195</v>
       </c>
       <c r="F608" t="s">
         <v>247</v>
@@ -24330,7 +24330,7 @@
         <v>193</v>
       </c>
       <c r="I608" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J608" t="s">
         <v>26</v>
@@ -24353,7 +24353,7 @@
         <v>958</v>
       </c>
       <c r="E609" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F609" t="s">
         <v>14</v>
@@ -24388,7 +24388,7 @@
         <v>959</v>
       </c>
       <c r="E610" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F610" t="s">
         <v>14</v>
@@ -24406,7 +24406,7 @@
         <v>26</v>
       </c>
       <c r="K610" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="611">
@@ -24423,7 +24423,7 @@
         <v>960</v>
       </c>
       <c r="E611" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F611" t="s">
         <v>535</v>
@@ -24470,7 +24470,7 @@
         <v>202</v>
       </c>
       <c r="I612" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J612" t="s">
         <v>120</v>
@@ -24522,7 +24522,7 @@
         <v>953</v>
       </c>
       <c r="C614" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D614" t="s">
         <v>963</v>
@@ -24592,7 +24592,7 @@
         <v>953</v>
       </c>
       <c r="C616" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D616" t="s">
         <v>965</v>
@@ -24633,7 +24633,7 @@
         <v>966</v>
       </c>
       <c r="E617" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F617" t="s">
         <v>14</v>
@@ -24651,7 +24651,7 @@
         <v>120</v>
       </c>
       <c r="K617" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="618">
@@ -24668,7 +24668,7 @@
         <v>967</v>
       </c>
       <c r="E618" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F618" t="s">
         <v>14</v>
@@ -24697,7 +24697,7 @@
         <v>953</v>
       </c>
       <c r="C619" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D619" t="s">
         <v>968</v>
@@ -24738,7 +24738,7 @@
         <v>969</v>
       </c>
       <c r="E620" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F620" t="s">
         <v>14</v>
@@ -24756,7 +24756,7 @@
         <v>26</v>
       </c>
       <c r="K620" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="621">
@@ -24791,7 +24791,7 @@
         <v>26</v>
       </c>
       <c r="K621" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="622">
@@ -24808,7 +24808,7 @@
         <v>971</v>
       </c>
       <c r="E622" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F622" t="s">
         <v>14</v>
@@ -24826,7 +24826,7 @@
         <v>26</v>
       </c>
       <c r="K622" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="623">
@@ -24849,13 +24849,13 @@
         <v>14</v>
       </c>
       <c r="G623" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H623" t="s">
         <v>973</v>
       </c>
       <c r="I623" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J623" t="s">
         <v>26</v>
@@ -24878,7 +24878,7 @@
         <v>975</v>
       </c>
       <c r="E624" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F624" t="s">
         <v>247</v>
@@ -24896,7 +24896,7 @@
         <v>91</v>
       </c>
       <c r="K624" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="625">
@@ -24913,7 +24913,7 @@
         <v>976</v>
       </c>
       <c r="E625" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F625" t="s">
         <v>701</v>
@@ -24931,7 +24931,7 @@
         <v>91</v>
       </c>
       <c r="K625" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="626">
@@ -24948,7 +24948,7 @@
         <v>977</v>
       </c>
       <c r="E626" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F626" t="s">
         <v>701</v>
@@ -24966,7 +24966,7 @@
         <v>91</v>
       </c>
       <c r="K626" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="627">
@@ -25012,13 +25012,13 @@
         <v>974</v>
       </c>
       <c r="C628" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D628" t="s">
         <v>979</v>
       </c>
       <c r="E628" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F628" t="s">
         <v>701</v>
@@ -25053,7 +25053,7 @@
         <v>980</v>
       </c>
       <c r="E629" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F629" t="s">
         <v>14</v>
@@ -25088,7 +25088,7 @@
         <v>981</v>
       </c>
       <c r="E630" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F630" t="s">
         <v>14</v>
@@ -25117,13 +25117,13 @@
         <v>974</v>
       </c>
       <c r="C631" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D631" t="s">
         <v>982</v>
       </c>
       <c r="E631" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F631" t="s">
         <v>14</v>
@@ -25152,19 +25152,19 @@
         <v>974</v>
       </c>
       <c r="C632" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D632" t="s">
         <v>983</v>
       </c>
       <c r="E632" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F632" t="s">
         <v>14</v>
       </c>
       <c r="G632" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H632" t="s">
         <v>193</v>
@@ -25193,7 +25193,7 @@
         <v>984</v>
       </c>
       <c r="E633" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F633" t="s">
         <v>701</v>
@@ -25205,7 +25205,7 @@
         <v>462</v>
       </c>
       <c r="I633" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J633" t="s">
         <v>18</v>
@@ -25228,7 +25228,7 @@
         <v>986</v>
       </c>
       <c r="E634" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F634" t="s">
         <v>14</v>
@@ -25237,7 +25237,7 @@
         <v>376</v>
       </c>
       <c r="H634" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I634" t="s">
         <v>151</v>
@@ -25263,7 +25263,7 @@
         <v>987</v>
       </c>
       <c r="E635" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F635" t="s">
         <v>14</v>
@@ -25281,7 +25281,7 @@
         <v>26</v>
       </c>
       <c r="K635" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="636">
@@ -25298,7 +25298,7 @@
         <v>988</v>
       </c>
       <c r="E636" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F636" t="s">
         <v>14</v>
@@ -25316,7 +25316,7 @@
         <v>26</v>
       </c>
       <c r="K636" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="637">
@@ -25333,7 +25333,7 @@
         <v>989</v>
       </c>
       <c r="E637" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F637" t="s">
         <v>14</v>
@@ -25397,7 +25397,7 @@
         <v>985</v>
       </c>
       <c r="C639" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D639" t="s">
         <v>991</v>
@@ -25421,7 +25421,7 @@
         <v>26</v>
       </c>
       <c r="K639" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="640">
@@ -25450,7 +25450,7 @@
         <v>128</v>
       </c>
       <c r="I640" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J640" t="s">
         <v>18</v>
@@ -25473,7 +25473,7 @@
         <v>993</v>
       </c>
       <c r="E641" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F641" t="s">
         <v>14</v>
@@ -25485,13 +25485,13 @@
         <v>289</v>
       </c>
       <c r="I641" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J641" t="s">
         <v>26</v>
       </c>
       <c r="K641" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="642">
@@ -25520,7 +25520,7 @@
         <v>636</v>
       </c>
       <c r="I642" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J642" t="s">
         <v>26</v>
@@ -25543,13 +25543,13 @@
         <v>995</v>
       </c>
       <c r="E643" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F643" t="s">
         <v>14</v>
       </c>
       <c r="G643" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H643" t="s">
         <v>426</v>
@@ -25572,7 +25572,7 @@
         <v>985</v>
       </c>
       <c r="C644" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D644" t="s">
         <v>996</v>
@@ -25631,7 +25631,7 @@
         <v>26</v>
       </c>
       <c r="K645" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="646">
@@ -25648,7 +25648,7 @@
         <v>998</v>
       </c>
       <c r="E646" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F646" t="s">
         <v>14</v>
